--- a/Hardware/static/Potentiometers SMD (Encoders)/Potentiometers smd BOM.xlsx
+++ b/Hardware/static/Potentiometers SMD (Encoders)/Potentiometers smd BOM.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC7D14-33C0-470C-8016-B0677F57ED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Potentiometers smd bill of mate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+  <si>
+    <t>No.</t>
+  </si>
   <si>
     <t>Quantity</t>
   </si>
@@ -34,24 +38,39 @@
     <t>Name</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>0.1 uF 10v</t>
   </si>
   <si>
     <t>C1,C2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>10 uF 10v</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>MR30PW-M20.G.Y</t>
   </si>
   <si>
     <t>CN1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>SV01A103AEA01R00</t>
   </si>
   <si>
@@ -59,6 +78,9 @@
   </si>
   <si>
     <t>Position Sensors</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>MCP6001RT-I/OT</t>
@@ -142,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,32 +179,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,14 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -554,255 +545,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K3" r:id="rId5"/>
-    <hyperlink ref="K2" r:id="rId6"/>
-    <hyperlink ref="K6" r:id="rId7"/>
-    <hyperlink ref="I6" r:id="rId8"/>
-    <hyperlink ref="I2" r:id="rId9"/>
-    <hyperlink ref="I3" r:id="rId10"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{11182F60-9215-4518-90F3-06AAD4FE982D}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{601CC319-1222-4758-BA68-50D1BB665452}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{F2B92BEF-DA38-47A1-91FF-FBCE78FF43BE}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{9FADD5CD-3F91-4682-AED0-16B391D26A42}"/>
+    <hyperlink ref="L3" r:id="rId5" xr:uid="{9287B9EA-CC1C-474B-B9A3-4AEDEC01B18F}"/>
+    <hyperlink ref="L2" r:id="rId6" xr:uid="{2F71FD0A-154D-4E37-8502-5716A678E18C}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{66A6891B-9DC3-4527-8AA3-2E97D4B72587}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{D4668C97-C177-4243-A854-F6A4865CA027}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{5AE00951-27E7-4CD3-9548-99624FDDEAAD}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{0483F0B9-978B-467C-9265-C7B3E974E7C3}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>